--- a/excel.xlsx
+++ b/excel.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -153,7 +153,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Arquivo de exemplo.xlsx]Planilha2!Tabela dinâmica1</c:name>
+    <c:name>[excel.xlsx]Planilha2!Tabela dinâmica1</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -1456,8 +1456,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Letra">
@@ -1480,7 +1480,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1583,7 +1583,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{909DFBA1-928C-4557-9803-1FF7AE3E28FA}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{909DFBA1-928C-4557-9803-1FF7AE3E28FA}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C9" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
